--- a/be-careplan.xlsx
+++ b/be-careplan.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$106</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="355">
   <si>
     <t>Path</t>
   </si>
@@ -144,10 +144,6 @@
     <t>Describes the intention of how one or more practitioners intend to deliver care for a particular patient, group or community for a period of time, possibly limited to care for a specific condition or set of conditions.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
-  </si>
-  <si>
     <t>CarePlan.id</t>
   </si>
   <si>
@@ -173,704 +169,669 @@
     <t>Resource.id</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
+    <t>CarePlan.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
 </t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t>CarePlan.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>CarePlan.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>CarePlan.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>CarePlan.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>CarePlan.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>External Ids for this plan</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this care plan by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier (see [discussion](resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Allows identification of the care plan as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t>CarePlan.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(PlanDefinition|Questionnaire|Measure|ActivityDefinition|OperationDefinition)
+</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
+  </si>
+  <si>
+    <t>CarePlan.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>CarePlan.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan)
+</t>
+  </si>
+  <si>
+    <t>Fulfills CarePlan</t>
+  </si>
+  <si>
+    <t>A care plan that is fulfilled in whole or in part by this care plan.</t>
+  </si>
+  <si>
+    <t>Allows tracing of the care plan and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>CarePlan.replaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supersedes
+</t>
+  </si>
+  <si>
+    <t>CarePlan replaced by this CarePlan</t>
+  </si>
+  <si>
+    <t>Completed or terminated care plan whose function is taken by this new care plan.</t>
+  </si>
+  <si>
+    <t>The replacement could be because the initial care plan was immediately rejected (due to an issue) or because the previous care plan was completed, but the need for the action described by the care plan remains ongoing.</t>
+  </si>
+  <si>
+    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple care plans.</t>
+  </si>
+  <si>
+    <t>CarePlan.partOf</t>
+  </si>
+  <si>
+    <t>Part of referenced CarePlan</t>
+  </si>
+  <si>
+    <t>A larger care plan of which this particular care plan is a component or step.</t>
+  </si>
+  <si>
+    <t>Each care plan is an independent request, such that having a care plan be part of another care plan can cause issues with cascading statuses.  As such, this element is still being discussed.</t>
+  </si>
+  <si>
+    <t>CarePlan.status</t>
+  </si>
+  <si>
+    <t>draft | active | suspended | completed | entered-in-error | cancelled | unknown</t>
+  </si>
+  <si>
+    <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
+  </si>
+  <si>
+    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the care plan.
+This element is labeled as a modifier because the status contains the code entered-in-error that marks the plan as not currently valid.</t>
+  </si>
+  <si>
+    <t>Allows clinicians to determine whether the plan is actionable or not.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.0</t>
+  </si>
+  <si>
+    <t>CarePlan.intent</t>
+  </si>
+  <si>
+    <t>proposal | plan | order | option</t>
+  </si>
+  <si>
+    <t>Indicates the level of authority/intentionality associated with the care plan and where the care plan fits into the workflow chain.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
+  </si>
+  <si>
+    <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.0</t>
+  </si>
+  <si>
+    <t>CarePlan.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Type of plan</t>
+  </si>
+  <si>
+    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
+  </si>
+  <si>
+    <t>There may be multiple axes of categorization and one plan may serve multiple purposes.  In some cases, this may be redundant with references to CarePlan.concern.</t>
+  </si>
+  <si>
+    <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
+  </si>
+  <si>
+    <t>CarePlan.title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Human-friendly name for the care plan</t>
+  </si>
+  <si>
+    <t>Human-friendly name for the care plan.</t>
+  </si>
+  <si>
+    <t>CarePlan.description</t>
+  </si>
+  <si>
+    <t>Summary of nature of plan</t>
+  </si>
+  <si>
+    <t>A description of the scope and nature of the plan.</t>
+  </si>
+  <si>
+    <t>Provides more detail than conveyed by category.</t>
+  </si>
+  <si>
+    <t>CarePlan.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Group)
+</t>
+  </si>
+  <si>
+    <t>Who the care plan is for</t>
+  </si>
+  <si>
+    <t>Identifies the patient or group whose intended care is described by the plan.</t>
+  </si>
+  <si>
+    <t>CarePlan.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter created as part of</t>
+  </si>
+  <si>
+    <t>The Encounter during which this CarePlan was created or to which the creation of this record is tightly associated.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter. CarePlan activities conducted as a result of the care plan may well occur as part of other encounters.</t>
+  </si>
+  <si>
+    <t>CarePlan.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period plan covers</t>
+  </si>
+  <si>
+    <t>Indicates when the plan did (or is intended to) come into effect and end.</t>
+  </si>
+  <si>
+    <t>Any activities scheduled as part of the plan should be constrained to the specified period regardless of whether the activities are planned within a single encounter/episode or across multiple encounters/episodes (e.g. the longitudinal management of a chronic condition).</t>
+  </si>
+  <si>
+    <t>Allows tracking what plan(s) are in effect at a particular time.</t>
+  </si>
+  <si>
+    <t>CarePlan.created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">authoredOn
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date record was first recorded</t>
+  </si>
+  <si>
+    <t>Represents when this particular CarePlan record was created in the system, which is often a system-generated date.</t>
+  </si>
+  <si>
+    <t>CarePlan.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|Device|RelatedPerson|Organization|CareTeam)
+</t>
+  </si>
+  <si>
+    <t>Who is the designated responsible party</t>
+  </si>
+  <si>
+    <t>When populated, the author is responsible for the care plan.  The care plan is attributed to the author.</t>
+  </si>
+  <si>
+    <t>The author may also be a contributor.  For example, an organization can be an author, but not listed as a contributor.</t>
+  </si>
+  <si>
+    <t>CarePlan.contributor</t>
+  </si>
+  <si>
+    <t>Who provided the content of the care plan</t>
+  </si>
+  <si>
+    <t>Identifies the individual(s) or organization who provided the contents of the care plan.</t>
+  </si>
+  <si>
+    <t>Collaborative care plans may have multiple contributors.</t>
+  </si>
+  <si>
+    <t>CarePlan.careTeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CareTeam)
+</t>
+  </si>
+  <si>
+    <t>Who's involved in plan?</t>
+  </si>
+  <si>
+    <t>Identifies all people and organizations who are expected to be involved in the care envisioned by this plan.</t>
+  </si>
+  <si>
+    <t>Allows representation of care teams, helps scope care plan.  In some cases may be a determiner of access permissions.</t>
+  </si>
+  <si>
+    <t>CarePlan.addresses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition)
+</t>
+  </si>
+  <si>
+    <t>Health issues this plan addresses</t>
+  </si>
+  <si>
+    <t>Identifies the conditions/problems/concerns/diagnoses/etc. whose management and/or mitigation are handled by this plan.</t>
+  </si>
+  <si>
+    <t>When the diagnosis is related to an allergy or intolerance, the Condition and AllergyIntolerance resources can both be used. However, to be actionable for decision support, using Condition alone is not sufficient as the allergy or intolerance condition needs to be represented as an AllergyIntolerance.</t>
+  </si>
+  <si>
+    <t>Links plan to the conditions it manages.  The element can identify risks addressed by the plan as well as active conditions.  (The Condition resource can include things like "at risk for hypertension" or "fall risk".)  Also scopes plans - multiple plans may exist addressing different concerns.</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Information considered as part of plan</t>
+  </si>
+  <si>
+    <t>Identifies portions of the patient's record that specifically influenced the formation of the plan.  These might include comorbidities, recent procedures, limitations, recent assessments, etc.</t>
+  </si>
+  <si>
+    <t>Use "concern" to identify specific conditions addressed by the care plan.</t>
+  </si>
+  <si>
+    <t>Identifies barriers and other considerations associated with the care plan.</t>
+  </si>
+  <si>
+    <t>CarePlan.goal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Goal)
+</t>
+  </si>
+  <si>
+    <t>Desired outcome of plan</t>
+  </si>
+  <si>
+    <t>Describes the intended objective(s) of carrying out the care plan.</t>
+  </si>
+  <si>
+    <t>Goal can be achieving a particular change or merely maintaining a current state or even slowing a decline.</t>
+  </si>
+  <si>
+    <t>Provides context for plan.  Allows plan effectiveness to be evaluated by clinicians.</t>
+  </si>
+  <si>
+    <t>CarePlan.activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Action to occur as part of plan</t>
+  </si>
+  <si>
+    <t>Identifies a planned action to occur as part of the plan.  For example, a medication to be used, lab tests to perform, self-monitoring, education, etc.</t>
+  </si>
+  <si>
+    <t>Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpl-3:Provide a reference or detail, not both {detail.empty() or reference.empty()}</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.outcomeCodeableConcept</t>
+  </si>
+  <si>
+    <t>Results of the activity</t>
+  </si>
+  <si>
+    <t>Identifies the outcome at the point when the status of the activity is assessed.  For example, the outcome of an education activity could be patient understands (or not).</t>
+  </si>
+  <si>
+    <t>Note that this should not duplicate the activity status (e.g. completed or in progress).</t>
+  </si>
+  <si>
+    <t>Identifies the results of the activity.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-outcome</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.outcomeReference</t>
+  </si>
+  <si>
+    <t>Appointment, Encounter, Procedure, etc.</t>
+  </si>
+  <si>
+    <t>Details of the outcome or action resulting from the activity.  The reference to an "event" resource, such as Procedure or Encounter or Observation, is the result/outcome of the activity itself.  The activity can be conveyed using CarePlan.activity.detail OR using the CarePlan.activity.reference (a reference to a “request” resource).</t>
+  </si>
+  <si>
+    <t>The activity outcome is independent of the outcome of the related goal(s).  For example, if the goal is to achieve a target body weight of 150 lbs and an activity is defined to diet, then the activity outcome could be calories consumed whereas the goal outcome is an observation for the actual body weight measured.</t>
+  </si>
+  <si>
+    <t>Links plan to resulting actions.</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Comments about the activity status/progress</t>
+  </si>
+  <si>
+    <t>Notes about the adherence/status/progress of the activity.</t>
+  </si>
+  <si>
+    <t>This element should NOT be used to describe the activity to be performed - that occurs either within the resource pointed to by activity.detail.reference or in activity.detail.description.</t>
+  </si>
+  <si>
+    <t>Can be used to capture information about adherence, progress, concerns, etc.</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Appointment|CommunicationRequest|DeviceRequest|MedicationRequest|NutritionOrder|Task|ServiceRequest|VisionPrescription|RequestGroup)
+</t>
+  </si>
+  <si>
+    <t>Activity details defined in specific resource</t>
+  </si>
+  <si>
+    <t>The details of the proposed activity represented in a specific resource.</t>
+  </si>
+  <si>
+    <t>Standard extension exists ([resource-pertainsToGoal](extension-resource-pertainstogoal.html)) that allows goals to be referenced from any of the referenced resources in CarePlan.activity.reference.  +The goal should be visible when the resource referenced by CarePlan.activity.reference is viewed independently from the CarePlan.  Requests that are pointed to by a CarePlan using this element should *not* point to this CarePlan using the "basedOn" element.  i.e. Requests that are part of a CarePlan are not "based on" the CarePlan.</t>
+  </si>
+  <si>
+    <t>Details in a form consistent with other applications and contexts of use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpl-3
+</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail</t>
+  </si>
+  <si>
+    <t>In-line definition of activity</t>
+  </si>
+  <si>
+    <t>A simple summary of a planned activity suitable for a general care plan system (e.g. form driven) that doesn't know about specific resources such as procedure etc.</t>
+  </si>
+  <si>
+    <t>Details in a simple form for generic care plan systems.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>CarePlan.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t>CarePlan.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>CarePlan.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>CarePlan.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>CarePlan.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>CarePlan.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>CarePlan.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>External Ids for this plan</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this care plan by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Allows identification of the care plan as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t>CarePlan.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(PlanDefinition|Questionnaire|Measure|ActivityDefinition|OperationDefinition)
-</t>
-  </si>
-  <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
-  </si>
-  <si>
-    <t>see [Canonical References](references.html#canonical)</t>
-  </si>
-  <si>
-    <t>CarePlan.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
-  </si>
-  <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
-  </si>
-  <si>
-    <t>CarePlan.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan)
-</t>
-  </si>
-  <si>
-    <t>Fulfills CarePlan</t>
-  </si>
-  <si>
-    <t>A care plan that is fulfilled in whole or in part by this care plan.</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>Allows tracing of the care plan and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %resource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
-    <t>CarePlan.replaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supersedes
-</t>
-  </si>
-  <si>
-    <t>CarePlan replaced by this CarePlan</t>
-  </si>
-  <si>
-    <t>Completed or terminated care plan whose function is taken by this new care plan.</t>
-  </si>
-  <si>
-    <t>The replacement could be because the initial care plan was immediately rejected (due to an issue) or because the previous care plan was completed, but the need for the action described by the care plan remains ongoing.</t>
-  </si>
-  <si>
-    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple care plans.</t>
-  </si>
-  <si>
-    <t>CarePlan.partOf</t>
-  </si>
-  <si>
-    <t>Part of referenced CarePlan</t>
-  </si>
-  <si>
-    <t>A larger care plan of which this particular care plan is a component or step.</t>
-  </si>
-  <si>
-    <t>Each care plan is an independent request, such that having a care plan be part of another care plan can cause issues with cascading statuses.  As such, this element is still being discussed.</t>
-  </si>
-  <si>
-    <t>CarePlan.status</t>
-  </si>
-  <si>
-    <t>draft | active | suspended | completed | entered-in-error | cancelled | unknown</t>
-  </si>
-  <si>
-    <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
-  </si>
-  <si>
-    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the care plan.
-This element is labeled as a modifier because the status contains the code entered-in-error that marks the plan as not currently valid.</t>
-  </si>
-  <si>
-    <t>Allows clinicians to determine whether the plan is actionable or not.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.0</t>
-  </si>
-  <si>
-    <t>CarePlan.intent</t>
-  </si>
-  <si>
-    <t>proposal | plan | order | option</t>
-  </si>
-  <si>
-    <t>Indicates the level of authority/intentionality associated with the care plan and where the care plan fits into the workflow chain.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
-  </si>
-  <si>
-    <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.0</t>
-  </si>
-  <si>
-    <t>CarePlan.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Type of plan</t>
-  </si>
-  <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
-  </si>
-  <si>
-    <t>There may be multiple axes of categorization and one plan may serve multiple purposes.  In some cases, this may be redundant with references to CarePlan.concern.</t>
-  </si>
-  <si>
-    <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
-  </si>
-  <si>
-    <t>CarePlan.title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Human-friendly name for the care plan</t>
-  </si>
-  <si>
-    <t>Human-friendly name for the care plan.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
-    <t>CarePlan.description</t>
-  </si>
-  <si>
-    <t>Summary of nature of plan</t>
-  </si>
-  <si>
-    <t>A description of the scope and nature of the plan.</t>
-  </si>
-  <si>
-    <t>Provides more detail than conveyed by category.</t>
-  </si>
-  <si>
-    <t>CarePlan.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group)
-</t>
-  </si>
-  <si>
-    <t>Who the care plan is for</t>
-  </si>
-  <si>
-    <t>Identifies the patient or group whose intended care is described by the plan.</t>
-  </si>
-  <si>
-    <t>CarePlan.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter created as part of</t>
-  </si>
-  <si>
-    <t>The Encounter during which this CarePlan was created or to which the creation of this record is tightly associated.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter. CarePlan activities conducted as a result of the care plan may well occur as part of other encounters.</t>
-  </si>
-  <si>
-    <t>CarePlan.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timing
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period plan covers</t>
-  </si>
-  <si>
-    <t>Indicates when the plan did (or is intended to) come into effect and end.</t>
-  </si>
-  <si>
-    <t>Any activities scheduled as part of the plan should be constrained to the specified period regardless of whether the activities are planned within a single encounter/episode or across multiple encounters/episodes (e.g. the longitudinal management of a chronic condition).</t>
-  </si>
-  <si>
-    <t>Allows tracking what plan(s) are in effect at a particular time.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
-    <t>CarePlan.created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">authoredOn
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Date record was first recorded</t>
-  </si>
-  <si>
-    <t>Represents when this particular CarePlan record was created in the system, which is often a system-generated date.</t>
-  </si>
-  <si>
-    <t>CarePlan.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|Device|RelatedPerson|Organization|CareTeam)
-</t>
-  </si>
-  <si>
-    <t>Who is the designated responsible party</t>
-  </si>
-  <si>
-    <t>When populated, the author is responsible for the care plan.  The care plan is attributed to the author.</t>
-  </si>
-  <si>
-    <t>The author may also be a contributor.  For example, an organization can be an author, but not listed as a contributor.</t>
-  </si>
-  <si>
-    <t>CarePlan.contributor</t>
-  </si>
-  <si>
-    <t>Who provided the content of the care plan</t>
-  </si>
-  <si>
-    <t>Identifies the individual(s) or organization who provided the contents of the care plan.</t>
-  </si>
-  <si>
-    <t>Collaborative care plans may have multiple contributors.</t>
-  </si>
-  <si>
-    <t>CarePlan.careTeam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CareTeam)
-</t>
-  </si>
-  <si>
-    <t>Who's involved in plan?</t>
-  </si>
-  <si>
-    <t>Identifies all people and organizations who are expected to be involved in the care envisioned by this plan.</t>
-  </si>
-  <si>
-    <t>Allows representation of care teams, helps scope care plan.  In some cases may be a determiner of access permissions.</t>
-  </si>
-  <si>
-    <t>CarePlan.addresses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition)
-</t>
-  </si>
-  <si>
-    <t>Health issues this plan addresses</t>
-  </si>
-  <si>
-    <t>Identifies the conditions/problems/concerns/diagnoses/etc. whose management and/or mitigation are handled by this plan.</t>
-  </si>
-  <si>
-    <t>When the diagnosis is related to an allergy or intolerance, the Condition and AllergyIntolerance resources can both be used. However, to be actionable for decision support, using Condition alone is not sufficient as the allergy or intolerance condition needs to be represented as an AllergyIntolerance.</t>
-  </si>
-  <si>
-    <t>Links plan to the conditions it manages.  The element can identify risks addressed by the plan as well as active conditions.  (The Condition resource can include things like "at risk for hypertension" or "fall risk".)  Also scopes plans - multiple plans may exist addressing different concerns.</t>
-  </si>
-  <si>
-    <t>CarePlan.supportingInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Information considered as part of plan</t>
-  </si>
-  <si>
-    <t>Identifies portions of the patient's record that specifically influenced the formation of the plan.  These might include comorbidities, recent procedures, limitations, recent assessments, etc.</t>
-  </si>
-  <si>
-    <t>Use "concern" to identify specific conditions addressed by the care plan.</t>
-  </si>
-  <si>
-    <t>Identifies barriers and other considerations associated with the care plan.</t>
-  </si>
-  <si>
-    <t>CarePlan.goal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Goal)
-</t>
-  </si>
-  <si>
-    <t>Desired outcome of plan</t>
-  </si>
-  <si>
-    <t>Describes the intended objective(s) of carrying out the care plan.</t>
-  </si>
-  <si>
-    <t>Goal can be achieving a particular change or merely maintaining a current state or even slowing a decline.</t>
-  </si>
-  <si>
-    <t>Provides context for plan.  Allows plan effectiveness to be evaluated by clinicians.</t>
-  </si>
-  <si>
-    <t>CarePlan.activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Action to occur as part of plan</t>
-  </si>
-  <si>
-    <t>Identifies a planned action to occur as part of the plan.  For example, a medication to be used, lab tests to perform, self-monitoring, education, etc.</t>
-  </si>
-  <si>
-    <t>Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpl-3:Provide a reference or detail, not both {detail.empty() or reference.empty()}</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.outcomeCodeableConcept</t>
-  </si>
-  <si>
-    <t>Results of the activity</t>
-  </si>
-  <si>
-    <t>Identifies the outcome at the point when the status of the activity is assessed.  For example, the outcome of an education activity could be patient understands (or not).</t>
-  </si>
-  <si>
-    <t>Note that this should not duplicate the activity status (e.g. completed or in progress).</t>
-  </si>
-  <si>
-    <t>Identifies the results of the activity.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-outcome</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.outcomeReference</t>
-  </si>
-  <si>
-    <t>Appointment, Encounter, Procedure, etc.</t>
-  </si>
-  <si>
-    <t>Details of the outcome or action resulting from the activity.  The reference to an "event" resource, such as Procedure or Encounter or Observation, is the result/outcome of the activity itself.  The activity can be conveyed using CarePlan.activity.detail OR using the CarePlan.activity.reference (a reference to a “request” resource).</t>
-  </si>
-  <si>
-    <t>The activity outcome is independent of the outcome of the related goal(s).  For example, if the goal is to achieve a target body weight of 150 lbs and an activity is defined to diet, then the activity outcome could be calories consumed whereas the goal outcome is an observation for the actual body weight measured.</t>
-  </si>
-  <si>
-    <t>Links plan to resulting actions.</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Comments about the activity status/progress</t>
-  </si>
-  <si>
-    <t>Notes about the adherence/status/progress of the activity.</t>
-  </si>
-  <si>
-    <t>This element should NOT be used to describe the activity to be performed - that occurs either within the resource pointed to by activity.detail.reference or in activity.detail.description.</t>
-  </si>
-  <si>
-    <t>Can be used to capture information about adherence, progress, concerns, etc.</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Appointment|CommunicationRequest|DeviceRequest|MedicationRequest|NutritionOrder|Task|ServiceRequest|VisionPrescription|RequestGroup)
-</t>
-  </si>
-  <si>
-    <t>Activity details defined in specific resource</t>
-  </si>
-  <si>
-    <t>The details of the proposed activity represented in a specific resource.</t>
-  </si>
-  <si>
-    <t>Standard extension exists ([resource-pertainsToGoal](extension-resource-pertainstogoal.html)) that allows goals to be referenced from any of the referenced resources in CarePlan.activity.reference.  -The goal should be visible when the resource referenced by CarePlan.activity.reference is viewed independently from the CarePlan.  Requests that are pointed to by a CarePlan using this element should *not* point to this CarePlan using the "basedOn" element.  i.e. Requests that are part of a CarePlan are not "based on" the CarePlan.</t>
-  </si>
-  <si>
-    <t>Details in a form consistent with other applications and contexts of use.</t>
-  </si>
-  <si>
-    <t>ele-1
-cpl-3</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail</t>
-  </si>
-  <si>
-    <t>In-line definition of activity</t>
-  </si>
-  <si>
-    <t>A simple summary of a planned activity suitable for a general care plan system (e.g. form driven) that doesn't know about specific resources such as procedure etc.</t>
-  </si>
-  <si>
-    <t>Details in a simple form for generic care plan systems.</t>
-  </si>
-  <si>
     <t>CarePlan.activity.detail.id</t>
   </si>
   <si>
@@ -1040,6 +1001,130 @@
     <t>If missing indicates that the described activity is one that should be engaged in when following the plan.</t>
   </si>
   <si>
+    <t>CarePlan.activity.detail.scheduled[x]</t>
+  </si>
+  <si>
+    <t>Timing
+Periodstring</t>
+  </si>
+  <si>
+    <t>When activity is to occur</t>
+  </si>
+  <si>
+    <t>The period, timing or frequency upon which the described activity is to occur.</t>
+  </si>
+  <si>
+    <t>Allows prompting for activities and detection of missed planned activities.</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>Where it should happen</t>
+  </si>
+  <si>
+    <t>Identifies the facility where the activity will occur; e.g. home, hospital, specific clinic, etc.</t>
+  </si>
+  <si>
+    <t>May reference a specific clinical location or may identify a type of location.</t>
+  </si>
+  <si>
+    <t>Helps in planning of activity.</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|RelatedPerson|Patient|CareTeam|HealthcareService|Device)
+</t>
+  </si>
+  <si>
+    <t>Who will be responsible?</t>
+  </si>
+  <si>
+    <t>Identifies who's expected to be involved in the activity.</t>
+  </si>
+  <si>
+    <t>A performer MAY also be a participant in the care plan.</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Medication|Substance)</t>
+  </si>
+  <si>
+    <t>What is to be administered/supplied</t>
+  </si>
+  <si>
+    <t>Identifies the food, drug or other product to be consumed or supplied in the activity.</t>
+  </si>
+  <si>
+    <t>A product supplied or administered as part of a care plan activity.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.dailyAmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daily dose
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>How to consume/day?</t>
+  </si>
+  <si>
+    <t>Identifies the quantity expected to be consumed in a given day.</t>
+  </si>
+  <si>
+    <t>Allows rough dose checking.</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.quantity</t>
+  </si>
+  <si>
+    <t>How much to administer/supply/consume</t>
+  </si>
+  <si>
+    <t>Identifies the quantity expected to be supplied, administered or consumed by the subject.</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.description</t>
+  </si>
+  <si>
+    <t>Extra info describing activity to perform</t>
+  </si>
+  <si>
+    <t>This provides a textual description of constraints on the intended activity occurrence, including relation to other activities.  It may also include objectives, pre-conditions and end-conditions.  Finally, it may convey specifics about the activity such as body site, method, route, etc.</t>
+  </si>
+  <si>
+    <t>CarePlan.note</t>
+  </si>
+  <si>
+    <t>Comments about the plan</t>
+  </si>
+  <si>
+    <t>General notes about the care plan not covered elsewhere.</t>
+  </si>
+  <si>
+    <t>Used to capture information that applies to the plan as a whole that doesn't fit into discrete elements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpl-3:Provide a reference or detail, not both {detail.empty() or reference.empty()}
+</t>
+  </si>
+  <si>
     <t>CarePlan.activity.detail.scheduled</t>
   </si>
   <si>
@@ -1047,130 +1132,7 @@
 </t>
   </si>
   <si>
-    <t>When activity is to occur</t>
-  </si>
-  <si>
-    <t>The period, timing or frequency upon which the described activity is to occur.</t>
-  </si>
-  <si>
-    <t>Describes the occurrence of an event that may occur multiple times. Timing schedules are used for specifying when events are expected or requested to occur, and may also be used to represent the summary of a past or ongoing event.  For simplicity, the definitions of Timing components are expressed as 'future' events, but such components can also be used to describe historic or ongoing events.
-A Timing schedule can be a list of events and/or criteria for when the event happens, which can be expressed in a structured form and/or as a code. When both event and a repeating specification are provided, the list of events should be understood as an interpretation of the information in the repeat structure.</t>
-  </si>
-  <si>
-    <t>Allows prompting for activities and detection of missed planned activities.</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Where it should happen</t>
-  </si>
-  <si>
-    <t>Identifies the facility where the activity will occur; e.g. home, hospital, specific clinic, etc.</t>
-  </si>
-  <si>
-    <t>May reference a specific clinical location or may identify a type of location.</t>
-  </si>
-  <si>
-    <t>Helps in planning of activity.</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|RelatedPerson|Patient|CareTeam|HealthcareService|Device)
-</t>
-  </si>
-  <si>
-    <t>Who will be responsible?</t>
-  </si>
-  <si>
-    <t>Identifies who's expected to be involved in the activity.</t>
-  </si>
-  <si>
-    <t>A performer MAY also be a participant in the care plan.</t>
-  </si>
-  <si>
     <t>CarePlan.activity.detail.product</t>
-  </si>
-  <si>
-    <t>What is to be administered/supplied</t>
-  </si>
-  <si>
-    <t>Identifies the food, drug or other product to be consumed or supplied in the activity.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
-    <t>A product supplied or administered as part of a care plan activity.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.dailyAmount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daily dose
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>How to consume/day?</t>
-  </si>
-  <si>
-    <t>Identifies the quantity expected to be consumed in a given day.</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>Allows rough dose checking.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.quantity</t>
-  </si>
-  <si>
-    <t>How much to administer/supply/consume</t>
-  </si>
-  <si>
-    <t>Identifies the quantity expected to be supplied, administered or consumed by the subject.</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.description</t>
-  </si>
-  <si>
-    <t>Extra info describing activity to perform</t>
-  </si>
-  <si>
-    <t>This provides a textual description of constraints on the intended activity occurrence, including relation to other activities.  It may also include objectives, pre-conditions and end-conditions.  Finally, it may convey specifics about the activity such as body site, method, route, etc.</t>
-  </si>
-  <si>
-    <t>CarePlan.note</t>
-  </si>
-  <si>
-    <t>Comments about the plan</t>
-  </si>
-  <si>
-    <t>General notes about the care plan not covered elsewhere.</t>
-  </si>
-  <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
-  </si>
-  <si>
-    <t>Used to capture information that applies to the plan as a whole that doesn't fit into discrete elements.</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI61"/>
+  <dimension ref="A1:AI106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1355,7 +1317,7 @@
     <col min="25" max="25" width="54.01953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.296875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1553,25 +1515,21 @@
       <c r="AD2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE2" t="s" s="2">
-        <v>35</v>
-      </c>
+      <c r="AE2" s="2"/>
       <c r="AF2" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="AG2" t="s" s="2">
-        <v>38</v>
-      </c>
+      <c r="AG2" s="2"/>
       <c r="AH2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1582,28 +1540,28 @@
         <v>37</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1653,24 +1611,24 @@
         <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1681,25 +1639,25 @@
         <v>37</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1750,24 +1708,24 @@
         <v>39</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1778,28 +1736,28 @@
         <v>37</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1849,24 +1807,24 @@
         <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1877,7 +1835,7 @@
         <v>37</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>39</v>
@@ -1889,16 +1847,16 @@
         <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1924,59 +1882,59 @@
         <v>39</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="X6" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>39</v>
@@ -1988,16 +1946,16 @@
         <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2047,28 +2005,28 @@
         <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2087,16 +2045,16 @@
         <v>39</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2146,7 +2104,7 @@
         <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -2163,11 +2121,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2186,16 +2144,16 @@
         <v>39</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2233,19 +2191,19 @@
         <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
@@ -2254,19 +2212,19 @@
         <v>38</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2279,25 +2237,25 @@
         <v>39</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="N10" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>39</v>
@@ -2334,19 +2292,19 @@
         <v>39</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="AC10" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE10" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>37</v>
@@ -2355,15 +2313,15 @@
         <v>38</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2383,22 +2341,22 @@
         <v>39</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>39</v>
@@ -2447,7 +2405,7 @@
         <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>37</v>
@@ -2456,15 +2414,15 @@
         <v>38</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2484,20 +2442,18 @@
         <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>39</v>
@@ -2546,7 +2502,7 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>37</v>
@@ -2555,15 +2511,15 @@
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2583,19 +2539,19 @@
         <v>39</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2645,7 +2601,7 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
@@ -2654,19 +2610,19 @@
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2682,22 +2638,20 @@
         <v>39</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>39</v>
@@ -2746,7 +2700,7 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>37</v>
@@ -2755,19 +2709,19 @@
         <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2783,22 +2737,22 @@
         <v>39</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>130</v>
-      </c>
       <c r="N15" t="s" s="2">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>39</v>
@@ -2847,7 +2801,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>37</v>
@@ -2856,15 +2810,15 @@
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2884,19 +2838,19 @@
         <v>39</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2946,7 +2900,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
@@ -2955,15 +2909,15 @@
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2971,34 +2925,34 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="I17" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>39</v>
@@ -3023,13 +2977,13 @@
         <v>39</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>39</v>
@@ -3047,24 +3001,24 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3072,34 +3026,34 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="I18" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>39</v>
@@ -3124,13 +3078,13 @@
         <v>39</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>39</v>
@@ -3148,24 +3102,24 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3185,22 +3139,22 @@
         <v>39</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>39</v>
@@ -3225,13 +3179,13 @@
         <v>39</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>39</v>
@@ -3249,7 +3203,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>37</v>
@@ -3258,15 +3212,15 @@
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3277,29 +3231,27 @@
         <v>37</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>39</v>
@@ -3348,24 +3300,24 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3376,31 +3328,29 @@
         <v>37</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3449,57 +3399,55 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>39</v>
@@ -3548,24 +3496,24 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3576,28 +3524,28 @@
         <v>37</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3647,59 +3595,59 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>39</v>
@@ -3748,53 +3696,53 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>185</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3845,24 +3793,24 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3873,28 +3821,28 @@
         <v>37</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -3944,24 +3892,24 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3984,16 +3932,16 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4043,7 +3991,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>37</v>
@@ -4052,15 +4000,15 @@
         <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4083,19 +4031,17 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>39</v>
@@ -4144,7 +4090,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>37</v>
@@ -4153,15 +4099,15 @@
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4181,22 +4127,22 @@
         <v>39</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>39</v>
@@ -4245,7 +4191,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>37</v>
@@ -4254,15 +4200,15 @@
         <v>38</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4285,19 +4231,19 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4346,7 +4292,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>37</v>
@@ -4355,15 +4301,15 @@
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4386,19 +4332,19 @@
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>39</v>
@@ -4447,7 +4393,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>37</v>
@@ -4456,15 +4402,15 @@
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4487,17 +4433,17 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>39</v>
@@ -4546,7 +4492,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>37</v>
@@ -4555,15 +4501,15 @@
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4574,7 +4520,7 @@
         <v>37</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>39</v>
@@ -4586,13 +4532,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4643,13 +4589,13 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>39</v>
@@ -4660,11 +4606,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4683,16 +4629,16 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4730,19 +4676,19 @@
         <v>39</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>37</v>
@@ -4751,19 +4697,19 @@
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4776,25 +4722,25 @@
         <v>39</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="N35" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -4843,7 +4789,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>37</v>
@@ -4852,15 +4798,15 @@
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4883,16 +4829,16 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -4918,13 +4864,13 @@
         <v>39</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>39</v>
@@ -4942,7 +4888,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>37</v>
@@ -4951,15 +4897,15 @@
         <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4982,19 +4928,19 @@
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -5043,7 +4989,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>37</v>
@@ -5052,15 +4998,15 @@
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5083,19 +5029,19 @@
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5144,7 +5090,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>37</v>
@@ -5153,15 +5099,15 @@
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5172,7 +5118,7 @@
         <v>37</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>39</v>
@@ -5184,19 +5130,19 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>39</v>
@@ -5245,24 +5191,24 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5273,7 +5219,7 @@
         <v>37</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>39</v>
@@ -5285,17 +5231,17 @@
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5344,24 +5290,24 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>52</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5372,7 +5318,7 @@
         <v>37</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>39</v>
@@ -5384,13 +5330,13 @@
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5441,13 +5387,13 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>39</v>
@@ -5458,11 +5404,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5481,16 +5427,16 @@
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5528,19 +5474,19 @@
         <v>39</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>37</v>
@@ -5549,19 +5495,19 @@
         <v>38</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5574,25 +5520,25 @@
         <v>39</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="N43" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>39</v>
@@ -5641,7 +5587,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>37</v>
@@ -5650,15 +5596,15 @@
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5669,7 +5615,7 @@
         <v>37</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>39</v>
@@ -5681,19 +5627,17 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>39</v>
@@ -5718,13 +5662,13 @@
         <v>39</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>39</v>
@@ -5742,24 +5686,24 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5782,19 +5726,17 @@
         <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>39</v>
@@ -5843,7 +5785,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>37</v>
@@ -5852,15 +5794,15 @@
         <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5883,19 +5825,19 @@
         <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>39</v>
@@ -5944,7 +5886,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>37</v>
@@ -5953,15 +5895,15 @@
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5972,7 +5914,7 @@
         <v>37</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>39</v>
@@ -5984,19 +5926,19 @@
         <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>39</v>
@@ -6021,13 +5963,13 @@
         <v>39</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>39</v>
@@ -6045,24 +5987,24 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6085,16 +6027,16 @@
         <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6120,13 +6062,13 @@
         <v>39</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>39</v>
@@ -6144,7 +6086,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>37</v>
@@ -6153,15 +6095,15 @@
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6184,16 +6126,16 @@
         <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6243,7 +6185,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>37</v>
@@ -6252,15 +6194,15 @@
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6283,19 +6225,17 @@
         <v>39</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>39</v>
@@ -6344,7 +6284,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>37</v>
@@ -6353,15 +6293,15 @@
         <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6369,34 +6309,34 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H51" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>39</v>
@@ -6421,13 +6361,13 @@
         <v>39</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>39</v>
@@ -6445,24 +6385,24 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6473,7 +6413,7 @@
         <v>37</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>39</v>
@@ -6485,16 +6425,16 @@
         <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -6544,24 +6484,24 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6572,37 +6512,37 @@
         <v>37</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H53" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="Q53" t="s" s="2">
         <v>39</v>
@@ -6647,24 +6587,24 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6675,7 +6615,7 @@
         <v>37</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>39</v>
@@ -6687,19 +6627,17 @@
         <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>39</v>
@@ -6748,24 +6686,24 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6776,7 +6714,7 @@
         <v>37</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>39</v>
@@ -6788,19 +6726,19 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>39</v>
@@ -6849,24 +6787,24 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6889,19 +6827,19 @@
         <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>39</v>
@@ -6950,7 +6888,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>37</v>
@@ -6959,15 +6897,15 @@
         <v>38</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -6978,7 +6916,7 @@
         <v>37</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>39</v>
@@ -6990,17 +6928,15 @@
         <v>39</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>151</v>
+        <v>330</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7025,13 +6961,13 @@
         <v>39</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
@@ -7049,35 +6985,35 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>39</v>
@@ -7089,19 +7025,17 @@
         <v>39</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>39</v>
@@ -7150,24 +7084,24 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>354</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7178,7 +7112,7 @@
         <v>37</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>39</v>
@@ -7190,17 +7124,15 @@
         <v>39</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>39</v>
@@ -7249,24 +7181,24 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>354</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7277,7 +7209,7 @@
         <v>37</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>39</v>
@@ -7289,17 +7221,15 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>39</v>
@@ -7348,24 +7278,24 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7388,19 +7318,17 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>39</v>
@@ -7449,7 +7377,7 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>37</v>
@@ -7458,14 +7386,4313 @@
         <v>38</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE62" s="2"/>
+      <c r="AF62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG62" s="2"/>
+      <c r="AH62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE63" s="2"/>
+      <c r="AF63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG63" s="2"/>
+      <c r="AH63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE64" s="2"/>
+      <c r="AF64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG64" s="2"/>
+      <c r="AH64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE65" s="2"/>
+      <c r="AF65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG65" s="2"/>
+      <c r="AH65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE66" s="2"/>
+      <c r="AF66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG66" s="2"/>
+      <c r="AH66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE67" s="2"/>
+      <c r="AF67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG67" s="2"/>
+      <c r="AH67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE68" s="2"/>
+      <c r="AF68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG68" s="2"/>
+      <c r="AH68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE69" s="2"/>
+      <c r="AF69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG69" s="2"/>
+      <c r="AH69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE70" s="2"/>
+      <c r="AF70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG70" s="2"/>
+      <c r="AH70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE71" s="2"/>
+      <c r="AF71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG71" s="2"/>
+      <c r="AH71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE72" s="2"/>
+      <c r="AF72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG72" s="2"/>
+      <c r="AH72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE73" s="2"/>
+      <c r="AF73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG73" s="2"/>
+      <c r="AH73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE74" s="2"/>
+      <c r="AF74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG74" s="2"/>
+      <c r="AH74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE75" s="2"/>
+      <c r="AF75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG75" s="2"/>
+      <c r="AH75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE76" s="2"/>
+      <c r="AF76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG76" s="2"/>
+      <c r="AH76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE77" s="2"/>
+      <c r="AF77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG77" s="2"/>
+      <c r="AH77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE78" s="2"/>
+      <c r="AF78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG78" s="2"/>
+      <c r="AH78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE79" s="2"/>
+      <c r="AF79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG79" s="2"/>
+      <c r="AH79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE80" s="2"/>
+      <c r="AF80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG80" s="2"/>
+      <c r="AH80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE81" s="2"/>
+      <c r="AF81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG81" s="2"/>
+      <c r="AH81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE82" s="2"/>
+      <c r="AF82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG82" s="2"/>
+      <c r="AH82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE83" s="2"/>
+      <c r="AF83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG83" s="2"/>
+      <c r="AH83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE84" s="2"/>
+      <c r="AF84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG84" s="2"/>
+      <c r="AH84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE85" s="2"/>
+      <c r="AF85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG85" s="2"/>
+      <c r="AH85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE86" s="2"/>
+      <c r="AF86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG86" s="2"/>
+      <c r="AH86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE87" s="2"/>
+      <c r="AF87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG87" s="2"/>
+      <c r="AH87" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE88" s="2"/>
+      <c r="AF88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG88" s="2"/>
+      <c r="AH88" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE89" s="2"/>
+      <c r="AF89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG89" s="2"/>
+      <c r="AH89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE90" s="2"/>
+      <c r="AF90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG90" s="2"/>
+      <c r="AH90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE91" s="2"/>
+      <c r="AF91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG91" s="2"/>
+      <c r="AH91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE92" s="2"/>
+      <c r="AF92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG92" s="2"/>
+      <c r="AH92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE93" s="2"/>
+      <c r="AF93" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG93" s="2"/>
+      <c r="AH93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE94" s="2"/>
+      <c r="AF94" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG94" s="2"/>
+      <c r="AH94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE95" s="2"/>
+      <c r="AF95" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG95" s="2"/>
+      <c r="AH95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE96" s="2"/>
+      <c r="AF96" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG96" s="2"/>
+      <c r="AH96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE97" s="2"/>
+      <c r="AF97" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG97" s="2"/>
+      <c r="AH97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Q98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE98" s="2"/>
+      <c r="AF98" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG98" s="2"/>
+      <c r="AH98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE99" s="2"/>
+      <c r="AF99" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG99" s="2"/>
+      <c r="AH99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE100" s="2"/>
+      <c r="AF100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG100" s="2"/>
+      <c r="AH100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE101" s="2"/>
+      <c r="AF101" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG101" s="2"/>
+      <c r="AH101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE102" s="2"/>
+      <c r="AF102" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG102" s="2"/>
+      <c r="AH102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE103" s="2"/>
+      <c r="AF103" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG103" s="2"/>
+      <c r="AH103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE104" s="2"/>
+      <c r="AF104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG104" s="2"/>
+      <c r="AH104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE105" s="2"/>
+      <c r="AF105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG105" s="2"/>
+      <c r="AH105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE106" s="2"/>
+      <c r="AF106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG106" s="2"/>
+      <c r="AH106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI61">
+  <autoFilter ref="A1:AI106">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7475,7 +11702,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI105">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/be-careplan.xlsx
+++ b/be-careplan.xlsx
@@ -157,7 +157,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -175,7 +175,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -207,6 +207,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>CarePlan.implicitRules</t>
   </si>
   <si>
@@ -329,6 +333,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>CarePlan.modifierExtension</t>
   </si>
   <si>
@@ -476,7 +484,7 @@
     <t>CarePlan.status</t>
   </si>
   <si>
-    <t>draft | active | suspended | completed | entered-in-error | cancelled | unknown</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
@@ -492,7 +500,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
   </si>
   <si>
     <t>Request.status {uses different ValueSet}</t>
@@ -525,7 +533,7 @@
     <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.1</t>
   </si>
   <si>
     <t>Request.intent</t>
@@ -565,10 +573,6 @@
     <t>CarePlan.title</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Human-friendly name for the care plan</t>
   </si>
   <si>
@@ -861,8 +865,8 @@
     <t>Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpl-3:Provide a reference or detail, not both {detail.empty() or reference.empty()}</t>
+    <t>cpl-3:Provide a reference or detail, not both {detail.empty() or reference.empty()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>{no mapping
@@ -1016,10 +1020,6 @@
     <t>Details in a simple form for generic care plan systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>.outboundRelationship[typeCode=COMP, subsetCode=SUMM].target</t>
   </si>
   <si>
@@ -1035,7 +1035,7 @@
     <t>CarePlan.activity.detail.kind</t>
   </si>
   <si>
-    <t>Kind of resource</t>
+    <t>Appointment | CommunicationRequest | DeviceRequest | MedicationRequest | NutritionOrder | Task | ServiceRequest | VisionPrescription</t>
   </si>
   <si>
     <t>A description of the kind of resource the in-line definition of a care plan activity is representing.  The CarePlan.activity.detail is an in-line definition when a resource is not referenced using CarePlan.activity.reference.  For example, a MedicationRequest, a ServiceRequest, or a CommunicationRequest.</t>
@@ -1047,7 +1047,7 @@
     <t>Resource types defined as part of FHIR that can be represented as in-line definitions of a care plan activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-kind|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-kind|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=LIST].code</t>
@@ -1170,7 +1170,7 @@
     <t>Codes that reflect the current state of a care plan activity within its overall life cycle.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-status|4.0.1</t>
   </si>
   <si>
     <t>Request.status</t>
@@ -1552,7 +1552,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="101.6953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="126.48046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2016,7 +2016,7 @@
         <v>43</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>43</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2056,16 +2056,16 @@
         <v>51</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2115,7 +2115,7 @@
         <v>43</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
@@ -2127,7 +2127,7 @@
         <v>43</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>43</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2167,16 +2167,16 @@
         <v>43</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2202,13 +2202,13 @@
         <v>43</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>43</v>
@@ -2226,7 +2226,7 @@
         <v>43</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
@@ -2238,7 +2238,7 @@
         <v>43</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>43</v>
@@ -2255,11 +2255,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2278,16 +2278,16 @@
         <v>43</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2337,7 +2337,7 @@
         <v>43</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
@@ -2349,13 +2349,13 @@
         <v>43</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>43</v>
@@ -2366,11 +2366,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2389,16 +2389,16 @@
         <v>43</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2448,7 +2448,7 @@
         <v>43</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -2466,7 +2466,7 @@
         <v>43</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>43</v>
@@ -2477,11 +2477,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2500,16 +2500,16 @@
         <v>43</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2559,7 +2559,7 @@
         <v>43</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -2571,13 +2571,13 @@
         <v>43</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>43</v>
@@ -2588,11 +2588,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2611,19 +2611,19 @@
         <v>43</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>43</v>
@@ -2672,7 +2672,7 @@
         <v>43</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2684,13 +2684,13 @@
         <v>43</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>43</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2724,19 +2724,19 @@
         <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>43</v>
@@ -2785,7 +2785,7 @@
         <v>43</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2797,24 +2797,24 @@
         <v>43</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2837,17 +2837,17 @@
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>43</v>
@@ -2896,7 +2896,7 @@
         <v>43</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2908,13 +2908,13 @@
         <v>43</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>43</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2948,19 +2948,19 @@
         <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>43</v>
@@ -3009,7 +3009,7 @@
         <v>43</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -3021,13 +3021,13 @@
         <v>43</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>43</v>
@@ -3038,11 +3038,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3061,17 +3061,17 @@
         <v>51</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>43</v>
@@ -3120,7 +3120,7 @@
         <v>43</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3132,10 +3132,10 @@
         <v>43</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>43</v>
@@ -3149,11 +3149,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3172,19 +3172,19 @@
         <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>43</v>
@@ -3233,7 +3233,7 @@
         <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3245,10 +3245,10 @@
         <v>43</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>43</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3285,16 +3285,16 @@
         <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3344,7 +3344,7 @@
         <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3356,7 +3356,7 @@
         <v>43</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>43</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3396,19 +3396,19 @@
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>43</v>
@@ -3433,31 +3433,31 @@
         <v>43</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>50</v>
@@ -3469,24 +3469,24 @@
         <v>43</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3509,19 +3509,19 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>43</v>
@@ -3546,13 +3546,13 @@
         <v>43</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>43</v>
@@ -3570,7 +3570,7 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>50</v>
@@ -3582,10 +3582,10 @@
         <v>43</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>43</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3622,19 +3622,19 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>43</v>
@@ -3659,13 +3659,13 @@
         <v>43</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>43</v>
@@ -3683,7 +3683,7 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3695,7 +3695,7 @@
         <v>43</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>43</v>
@@ -3704,7 +3704,7 @@
         <v>43</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>43</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3735,13 +3735,13 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3792,7 +3792,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3804,7 +3804,7 @@
         <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>43</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3844,17 +3844,17 @@
         <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>43</v>
@@ -3903,7 +3903,7 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3915,7 +3915,7 @@
         <v>43</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>43</v>
@@ -3924,7 +3924,7 @@
         <v>43</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>43</v>
@@ -3932,11 +3932,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3955,13 +3955,13 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4012,7 +4012,7 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>50</v>
@@ -4024,24 +4024,24 @@
         <v>43</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4064,16 +4064,16 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4123,7 +4123,7 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4135,28 +4135,28 @@
         <v>43</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4175,19 +4175,19 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>43</v>
@@ -4236,7 +4236,7 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4248,28 +4248,28 @@
         <v>43</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4288,16 +4288,16 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4347,7 +4347,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4359,16 +4359,16 @@
         <v>43</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>43</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4399,16 +4399,16 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4458,7 +4458,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4470,16 +4470,16 @@
         <v>43</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4510,16 +4510,16 @@
         <v>43</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4569,7 +4569,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4581,7 +4581,7 @@
         <v>43</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>43</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4621,17 +4621,17 @@
         <v>43</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>43</v>
@@ -4680,7 +4680,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4692,16 +4692,16 @@
         <v>43</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>43</v>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4732,19 +4732,19 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>43</v>
@@ -4793,7 +4793,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4805,24 +4805,24 @@
         <v>43</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4845,19 +4845,19 @@
         <v>43</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>43</v>
@@ -4906,7 +4906,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4918,10 +4918,10 @@
         <v>43</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>43</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4958,19 +4958,19 @@
         <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>43</v>
@@ -5019,7 +5019,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5031,24 +5031,24 @@
         <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5071,17 +5071,17 @@
         <v>43</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>43</v>
@@ -5130,7 +5130,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5142,13 +5142,13 @@
         <v>43</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>43</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5182,13 +5182,13 @@
         <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5239,7 +5239,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5257,7 +5257,7 @@
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>43</v>
@@ -5268,11 +5268,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5291,16 +5291,16 @@
         <v>43</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5350,7 +5350,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5362,13 +5362,13 @@
         <v>43</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>43</v>
@@ -5379,11 +5379,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5402,19 +5402,19 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>43</v>
@@ -5463,7 +5463,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5475,13 +5475,13 @@
         <v>43</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>43</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5515,16 +5515,16 @@
         <v>43</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5550,13 +5550,13 @@
         <v>43</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>43</v>
@@ -5574,7 +5574,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5586,7 +5586,7 @@
         <v>43</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>43</v>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5626,19 +5626,19 @@
         <v>43</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>43</v>
@@ -5687,7 +5687,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5699,13 +5699,13 @@
         <v>43</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>43</v>
@@ -5716,7 +5716,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5739,19 +5739,19 @@
         <v>43</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>43</v>
@@ -5800,7 +5800,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5812,24 +5812,24 @@
         <v>43</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5852,19 +5852,19 @@
         <v>43</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>43</v>
@@ -5913,7 +5913,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5922,16 +5922,16 @@
         <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>43</v>
@@ -5942,7 +5942,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5965,17 +5965,17 @@
         <v>43</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>43</v>
@@ -6024,7 +6024,7 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6033,10 +6033,10 @@
         <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>43</v>
@@ -6076,13 +6076,13 @@
         <v>43</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6133,7 +6133,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6151,7 +6151,7 @@
         <v>43</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>43</v>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6185,16 +6185,16 @@
         <v>43</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6244,7 +6244,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6256,13 +6256,13 @@
         <v>43</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>43</v>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6296,19 +6296,19 @@
         <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>43</v>
@@ -6357,7 +6357,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6369,13 +6369,13 @@
         <v>43</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>43</v>
@@ -6409,7 +6409,7 @@
         <v>43</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>325</v>
@@ -6444,7 +6444,7 @@
         <v>43</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X44" t="s" s="2">
         <v>328</v>
@@ -6480,7 +6480,7 @@
         <v>43</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>43</v>
@@ -6523,7 +6523,7 @@
         <v>332</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>333</v>
@@ -6591,13 +6591,13 @@
         <v>43</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>43</v>
@@ -6631,16 +6631,16 @@
         <v>43</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>336</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>334</v>
@@ -6704,13 +6704,13 @@
         <v>43</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>43</v>
@@ -6744,7 +6744,7 @@
         <v>43</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>338</v>
@@ -6781,7 +6781,7 @@
         <v>43</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>342</v>
@@ -6817,7 +6817,7 @@
         <v>43</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>344</v>
@@ -6857,7 +6857,7 @@
         <v>43</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>348</v>
@@ -6892,7 +6892,7 @@
         <v>43</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="X48" t="s" s="2">
         <v>351</v>
@@ -6928,7 +6928,7 @@
         <v>43</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>353</v>
@@ -7039,10 +7039,10 @@
         <v>43</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>43</v>
@@ -7079,7 +7079,7 @@
         <v>43</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>360</v>
@@ -7150,13 +7150,13 @@
         <v>43</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>43</v>
@@ -7190,7 +7190,7 @@
         <v>43</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>364</v>
@@ -7227,7 +7227,7 @@
         <v>43</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X51" t="s" s="2">
         <v>368</v>
@@ -7263,7 +7263,7 @@
         <v>43</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>370</v>
@@ -7303,7 +7303,7 @@
         <v>43</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>374</v>
@@ -7374,7 +7374,7 @@
         <v>43</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>377</v>
@@ -7489,7 +7489,7 @@
         <v>43</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>385</v>
@@ -7600,13 +7600,13 @@
         <v>43</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>43</v>
@@ -7713,7 +7713,7 @@
         <v>43</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>43</v>
@@ -7826,7 +7826,7 @@
         <v>43</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>406</v>
@@ -7899,7 +7899,7 @@
         <v>43</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="X57" t="s" s="2">
         <v>413</v>
@@ -7935,7 +7935,7 @@
         <v>43</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>43</v>
@@ -8046,7 +8046,7 @@
         <v>43</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>43</v>
@@ -8155,7 +8155,7 @@
         <v>43</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>43</v>
@@ -8195,7 +8195,7 @@
         <v>43</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>431</v>
@@ -8264,7 +8264,7 @@
         <v>43</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>43</v>
@@ -8276,7 +8276,7 @@
         <v>43</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" hidden="true">
@@ -8304,7 +8304,7 @@
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>435</v>
@@ -8375,19 +8375,19 @@
         <v>43</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>438</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
